--- a/playlist_per_work/eemb001haer01.xlsx
+++ b/playlist_per_work/eemb001haer01.xlsx
@@ -483,19 +483,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#1.-sold</t>
+          <t>#1.-borger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1. Sold</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>1. Borger</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -509,19 +505,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#rippard</t>
+          <t>#haerlem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rippard</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Haerlem</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -535,19 +527,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#aldeg</t>
+          <t>#knecht</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aldeg</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Knecht</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -561,19 +549,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#tijdt</t>
+          <t>#g.-stuy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tijdt</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>G. Stuy</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -587,19 +571,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#i.-rome</t>
+          <t>#2.-borg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>I. Rome</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2. Borg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -613,19 +593,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#verlaen</t>
+          <t>#assend</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Verlaen</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Assend</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -639,19 +615,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#alecto</t>
+          <t>#2.-sold</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alecto</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2. Sold</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -665,19 +637,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#vvaer-heyd</t>
+          <t>#p.-kies</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>VVaer-heyd</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>P. Kies</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -691,19 +659,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#p.-kies</t>
+          <t>#1.-vrouw</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P. Kies</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>1. vrouw</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -717,19 +681,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#assend</t>
+          <t>#2.-vrouw</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Assend</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2. vrouw</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -743,19 +703,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#prince-van-orangien</t>
+          <t>#verlaen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Prince van Orangien</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Verlaen</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -769,19 +725,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#m.-drag</t>
+          <t>#de-maeght-haerlem</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M. Drag</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Maeght Haerlem</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -795,19 +747,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#i.-vliet</t>
+          <t>#aldeg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>I. Vliet</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Aldeg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -821,19 +769,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#de-maeght-haerlem</t>
+          <t>#tijdt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>De Maeght Haerlem</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tijdt</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -847,19 +791,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#de-vries</t>
+          <t>#maegera</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>De Vries</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Maegera</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -873,19 +813,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#maegera</t>
+          <t>#1.-borg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Maegera</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>1. Borg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -899,19 +835,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#noircar</t>
+          <t>#vvaer-heyd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Noircar</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>VVaer-heyd</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -925,19 +857,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#bordet</t>
+          <t>#steenba</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bordet</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Steenba</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -951,19 +879,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#knecht</t>
+          <t>#1.-vrouw</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Knecht</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>1. Vrouw</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -977,19 +901,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#1.-vrou</t>
+          <t>#rippard</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1. Vrou</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rippard</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1003,19 +923,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#don-fr</t>
+          <t>#de-vries</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Don Fr</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>De Vries</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1029,19 +945,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#2.-borger</t>
+          <t>#1.-sold</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2. Borger</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>1. Sold</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1055,19 +967,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#g.-stuy</t>
+          <t>#2.-vrou</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>G. Stuy</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2. Vrou</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1081,19 +989,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#steenba</t>
+          <t>#bordet</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Steenba</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Bordet</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1107,19 +1011,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#schagen</t>
+          <t>#prince-van-orangien</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Schagen</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Prince van Orangien</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1133,19 +1033,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#1.-borg</t>
+          <t>#m.-drag</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1. Borg</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>M. Drag</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1159,19 +1055,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#2.-vrouw</t>
+          <t>#1.-vrou</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2. vrouw</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>1. Vrou</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1185,19 +1077,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#haerlem</t>
+          <t>#2.-borger</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Haerlem</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2. Borger</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1211,12 +1099,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#1.-borg</t>
+          <t>#i.-vliet</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2. Borg</t>
+          <t>I. Vliet</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1233,12 +1121,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#1.-sold</t>
+          <t>#alecto</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2. Sold</t>
+          <t>Alecto</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1255,7 +1143,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#1.-vrou</t>
+          <t>#2.-vrouw</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1277,12 +1165,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#1.-vrou</t>
+          <t>#i.-rome</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2. Vrou</t>
+          <t>I. Rome</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1299,12 +1187,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#1.-vrou</t>
+          <t>#schagen</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1. vrouw</t>
+          <t>Schagen</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1321,12 +1209,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#1.-borg</t>
+          <t>#don-fr</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1. Borger</t>
+          <t>Don Fr</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1343,12 +1231,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#1.-vrou</t>
+          <t>#noircar</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1. Vrouw</t>
+          <t>Noircar</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>

--- a/playlist_per_work/eemb001haer01.xlsx
+++ b/playlist_per_work/eemb001haer01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -483,19 +488,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#1.-borger</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1. Borger</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>#2.-vrouw</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2. Vrouw</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#haerlem</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Haerlem</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#assend</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Assend</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#knecht</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Knecht</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#don-fr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Don Fr</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,19 +557,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#g.-stuy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>G. Stuy</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>#tijdt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tijdt</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,19 +580,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#2.-borg</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2. Borg</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#2.-borger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2. Borger</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,19 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#assend</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Assend</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>#knecht</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Knecht</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -615,19 +626,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#2.-sold</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2. Sold</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>#steenba</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Steenba</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -637,19 +649,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#p.-kies</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>P. Kies</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>#2.-vrouw</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2. vrouw</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -659,19 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#1.-vrouw</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1. vrouw</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>#vvaer-heyd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VVaer-heyd</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -681,19 +695,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#2.-vrouw</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2. vrouw</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>#2.-borg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2. Borg</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,19 +718,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#verlaen</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Verlaen</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>#alecto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Alecto</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,19 +741,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#de-maeght-haerlem</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>De Maeght Haerlem</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>#g.-stuy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>G. Stuy</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,19 +764,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#aldeg</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Aldeg</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>#bordet</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Bordet</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -769,19 +787,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#tijdt</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Tijdt</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>#schagen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Schagen</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -791,19 +810,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#maegera</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Maegera</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>#i.-vliet</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>I. Vliet</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -813,19 +833,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#1.-borg</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1. Borg</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>#1.-vrou</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1. Vrou</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -835,19 +856,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#vvaer-heyd</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>VVaer-heyd</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>#2.-sold</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2. Sold</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -857,19 +879,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#steenba</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Steenba</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>#aldeg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Aldeg</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,16 +905,17 @@
           <t>#1.-vrouw</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>1. Vrouw</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -901,19 +925,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#rippard</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Rippard</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>#prince-van-orangien</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Prince van Orangien</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -923,19 +948,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#de-vries</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>De Vries</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>#1.-borger</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1. Borger</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -945,19 +971,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#1.-sold</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1. Sold</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>#2.-vrou</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2. Vrou</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -967,19 +994,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#2.-vrou</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2. Vrou</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>#i.-rome</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>I. Rome</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -989,19 +1017,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#bordet</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Bordet</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>#verlaen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Verlaen</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1011,19 +1040,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#prince-van-orangien</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Prince van Orangien</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>#p.-kies</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P. Kies</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1033,19 +1063,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#m.-drag</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>M. Drag</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>#rippard</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rippard</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1055,19 +1086,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#1.-vrou</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1. Vrou</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>#maegera</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Maegera</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1077,19 +1109,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#2.-borger</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2. Borger</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>#de-vries</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>De Vries</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1099,19 +1132,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#i.-vliet</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>I. Vliet</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>#haerlem</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Haerlem</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1121,19 +1155,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#alecto</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Alecto</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>#de-maeght-haerlem</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>De Maeght Haerlem</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1143,19 +1178,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#2.-vrouw</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2. Vrouw</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>#1.-sold</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1. Sold</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1165,19 +1201,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#i.-rome</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>I. Rome</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>#m.-drag</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>M. Drag</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1187,19 +1224,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#schagen</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Schagen</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>#1.-borg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1. Borg</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1209,19 +1247,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#don-fr</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Don Fr</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>#noircar</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Noircar</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1231,19 +1270,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#noircar</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Noircar</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>#1.-vrouw</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1. vrouw</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
